--- a/SQL SERVER/Function Document/萬海 TIMS CbCR 單元功能測試反饋_0124_帆軟only.xlsx
+++ b/SQL SERVER/Function Document/萬海 TIMS CbCR 單元功能測試反饋_0124_帆軟only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmochou/workspace/CFC MODEL/SQL SERVER/Function Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEA16B4-6F2F-9143-8C35-10D10D3DC090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EB4C03-6F50-E246-8EBA-C79BAA4BA309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-1980" windowWidth="38400" windowHeight="21100" tabRatio="751" xr2:uid="{318A3ADF-BB52-4A80-B860-65E9C53CC0B3}"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="751" activeTab="3" xr2:uid="{318A3ADF-BB52-4A80-B860-65E9C53CC0B3}"/>
   </bookViews>
   <sheets>
     <sheet name="國別報告模組" sheetId="22" r:id="rId1"/>
@@ -1513,18 +1513,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1541,7 +1529,19 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2279,9 +2279,9 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2774,7 +2774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D021ECF-0C37-42DD-92AC-0405BEFA5860}">
   <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView topLeftCell="D61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -3488,7 +3488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420030D6-0CDC-49A1-9F20-82D7858F609E}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
@@ -3569,116 +3569,116 @@
       <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:15" ht="79.5" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="51" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="79.5" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="51" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:15" ht="60" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="52" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
       <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="57" t="s">
         <v>92</v>
       </c>
       <c r="J10" s="25"/>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="61" t="s">
         <v>93</v>
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="54"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="41" t="s">
         <v>95</v>
       </c>
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:15" ht="17">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26" t="s">
         <v>96</v>
@@ -3708,7 +3708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="34">
+    <row r="13" spans="1:15" ht="32">
       <c r="A13" s="22" t="s">
         <v>104</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="51">
+    <row r="14" spans="1:15" ht="48">
       <c r="A14" s="22" t="s">
         <v>104</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="34">
+    <row r="15" spans="1:15" ht="18">
       <c r="A15" s="22" t="s">
         <v>104</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="34">
+    <row r="17" spans="1:15" ht="32">
       <c r="A17" s="22" t="s">
         <v>104</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="34">
+    <row r="26" spans="1:15" ht="32">
       <c r="A26" s="22" t="s">
         <v>104</v>
       </c>
@@ -5335,11 +5335,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:D9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="E7:L7"/>
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="E9:L9"/>
@@ -5349,6 +5344,11 @@
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A13:A62">
@@ -5392,8 +5392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD5D46D-8839-45E9-82B1-E674D3628704}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/SQL SERVER/Function Document/萬海 TIMS CbCR 單元功能測試反饋_0124_帆軟only.xlsx
+++ b/SQL SERVER/Function Document/萬海 TIMS CbCR 單元功能測試反饋_0124_帆軟only.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmochou/workspace/CFC MODEL/SQL SERVER/Function Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EB4C03-6F50-E246-8EBA-C79BAA4BA309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7178CB00-8C7E-E240-8ED1-27476961BAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="751" activeTab="3" xr2:uid="{318A3ADF-BB52-4A80-B860-65E9C53CC0B3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" tabRatio="751" firstSheet="2" activeTab="6" xr2:uid="{318A3ADF-BB52-4A80-B860-65E9C53CC0B3}"/>
   </bookViews>
   <sheets>
     <sheet name="國別報告模組" sheetId="22" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="30" r:id="rId2"/>
     <sheet name="數據範例" sheetId="32" r:id="rId3"/>
     <sheet name="取數邏輯調整" sheetId="33" r:id="rId4"/>
+    <sheet name="低稅地區具有『控股』以外功能" sheetId="35" r:id="rId5"/>
+    <sheet name="可能不符合Pillar 2過渡性避風港小型微利測試之豁免條件" sheetId="34" r:id="rId6"/>
+    <sheet name="可能不符合Pillar 2過渡性避風港例行利潤測試之豁免條件" sheetId="36" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'可能不符合Pillar 2過渡性避風港小型微利測試之豁免條件'!$A$1:$H$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">國別報告模組!$A$1:$O$13</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="295">
   <si>
     <t>頁面</t>
   </si>
@@ -470,10 +474,6 @@
   <si>
     <t>租稅管轄區
 Tax Jurisdiction</t>
-  </si>
-  <si>
-    <t>國別報告收入
-Total revenue in CbC Report.</t>
   </si>
   <si>
     <t>國別報告稅前淨利
@@ -939,20 +939,758 @@
     <t>篩選2024-12下鑽新加坡時，圓餅圖圖例展示不一致，應同時有2間公司(屬ut，待通知帆軟修復)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>可能不符合Pillar 2過渡性避風港例行利潤測試之豁免條件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHENZHEN UNIWIN INTERNATIONAL LOGISTICS LTD.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GUANGZHOU WAN HAI INFORMATION TECHNOLOGY LTD.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIPPER INTERNATIONAL SHIPPING AGENCY LTD.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE OCEAN LOGISTICS (SHANGHAI) LTD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以匯率35塊來說皆小於350000000, 35000000</t>
+  </si>
+  <si>
+    <t>以匯率35塊來說皆小於350000000, 35000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fanruan 測試結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenzhen Yong Chun International Shipping Management Co., Ltd.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以匯率35塊來說皆小於350000000, 35000001</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wan Hai Lines (India) Pvt. Ltd.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH Corporation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wan Hai Lines (Korea) Ltd.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yi Chun Shipping Agencies Sdn Bhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wan Hai Lines (M) Sdn Bhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAVELY (MYANMAR) TRANSPORT AND LOGISTICS COMPANY LIMITED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAN HAI SHIPPING LIMITED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAN HAI LINES (PHILS.), INC.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bravely International Pte Ltd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wan Hai Lines (Singapore) Pte Ltd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wan Hai International Pte Ltd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infinite Marine Investment Co., Ltd.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAN HAI LINES (THAILAND) LTD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TK LOGISTICS INTERNATIONAL CO., LTD. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAO SHENG SHIPPING AGENCY CO., LTD.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAN HAI LINES LTD.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAN HAI LINES (ARIZONA) LLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAN HAI LINES (USA) LTD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WAN HAI (VIETNAM) LTD. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE CHUN LOGISTICS COMPANY LIMITED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAN HAI LINES PERU S.A.C.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAN HAI LINES (LIBERIA) LTD.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wan Hai Lines Mexico, S. A. DE C. V.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判斷規則</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>低稅地區具有『控股』以外功能 位於台灣國稅局公布低稅區名單及法定稅率低於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之國家地區，且國別報告表二的持有股份或其他權益工具以外功能有勾選</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：請記得這邊若從後端直接輸入，國別報告表二的持有股份或其他工具以外功能勾選為1 否則為 0 (前端輸入則不會有問題）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下為修正後結果：11 家有中文主體名稱的只有兩家有發生預警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PwC數據範例顯示結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取數邏輯調整：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國別報告收入
+Total revenue in CbC Report.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col_p2_pre_tax_income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col_p2_income</t>
+  </si>
+  <si>
+    <t>中文主體名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文主體名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海聯駿國際船舶代理有限公司</t>
+  </si>
+  <si>
+    <t>大榮國際物流有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台基國際物流股份有限公司</t>
+  </si>
+  <si>
+    <t>勁海物流(上海)有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳勇春國際船舶管理有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳聯豐國際貨運有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬海航運(香港)股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬海航運股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣州萬海資訊科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶昇船務代理股份有限公司</t>
+  </si>
+  <si>
+    <r>
+      <t>注意事項： 先前提供的TRS_FACT_COUNTRY_REPORT 當中 各個主體皆缺少其col_p2_eur_to_twd_exch ，需要將其補上，目前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>帆軟環境已經先將各個主體皆補上匯率35</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問題：資料結果不正確，報告成員中文名稱11家除以下兩家以外皆有風險，故發生次數應為9 (詳見數據範例)
+1.廣州萬海資訊科技有限公司
+2.大榮國際物流有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>説明：目前測出來將只有5家會有風險預警根據其上資料彙整（1. 深圳聯豐國際貨運有限公司
+2.上海聯駿國際船舶代理有限公司
+3.萬海航運(香港)股份有限公司
+4.萬海航運股份有限公司
+5.Wan Hai Lines Mexico, S. A. DE C. V.）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>舊版：
+Pillar 2過渡性避風港的稅前淨利扣除實質免稅額之金額大於等於零
+*為Pillar 2過渡性避風港的員工薪資(以10%乘算後)及國別報告表一的有形資產(以8%乘算後)之合計
+新版：
+Pillar 2過渡性避風港的稅前淨利扣除實質免稅額之金額大於等於零
+*為Pillar 2過渡性避風港的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期初期末平均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>員工薪資(以10%乘算後)及國別報告表一的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期初期末平均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">有形資產(以8%乘算後)之合計
+公式：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>稅前淨利col_p2_pre_tax_income-實質免稅額{
+[(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y-1期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>員工薪資col_p2_payroll+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>員工薪資col_p2_payroll)/2]*10%+
+[(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y-1期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有形資產col_p2_tangible_asset+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有形資產col_p2_tangible_asset)/2]*8%
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y-1期員工薪資col_p2_payroll</t>
+  </si>
+  <si>
+    <t>y期員工薪資col_p2_payroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y-1期有形資產col_p2_tangible_asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y期有形資產col_p2_tangible_asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y期稅前淨利col_p2_pre_tax_income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIWIN_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>UNIWIN_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZIT_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>GZIT_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIPPER_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>CLIPPER_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHMX_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHLR_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHPER_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHPER_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCVN_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHVN_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHVN_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHUSA_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHUSA_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHAZ_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHAZ_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHL_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHL_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TK LOGISTICS INTERNATIONAL CO., LTD.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSS_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>BSS_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKL_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>TKL_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHTH_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHTH_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHI_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHSG_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHSG_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRVI_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>BRVI_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHPH_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHPH_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHSH_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHSH_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRVM_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>BRVM_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHMY_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHMY_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YIMY_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHKR_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHC_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHC_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHIN_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHIN_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wan Hai Lines (H.K.) Limited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHHK_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHHK_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAWIN LOGISTICS (INTERNATIONAL) LIMITED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAWIN_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>DAWIN_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WANHAI LINES ECUADOR S.A.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHEC_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>WHEC_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZYC_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>SZYC_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMIC_tax_cbcr1</t>
+  </si>
+  <si>
+    <t>IMIC_tax_cbcr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col_p2_tangible_asset</t>
+  </si>
+  <si>
+    <t>y期稅前淨利col_p2_pre_tax_income-實質免稅額{
+[(y-1期員工薪資col_p2_payroll+y期員工薪資col_p2_payroll)/2]*10%+
+[(y-1期有形資產col_p2_tangible_asset+y期有形資產col_p2_tangible_asset)/2]*8%
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬海航運</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>香港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>股份有限公司</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="#0;&quot;-&quot;#0;#0;_(@_)"/>
     <numFmt numFmtId="180" formatCode="* #,##0.00;* \(#,##0.00\);* &quot;—&quot;;_(@_)"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1113,8 +1851,95 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF2D2D2D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFD04A02"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1182,6 +2007,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,7 +2204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,6 +2344,74 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1542,6 +2441,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1923,6 +2834,192 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6705600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510D8729-0A4E-CFA4-20F3-5B74577FE711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="1892300"/>
+          <a:ext cx="6667500" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6629400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7231F76-07DA-A5A5-7C55-843D61190B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="1879600"/>
+          <a:ext cx="7772400" cy="1339205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1574800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>46357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF52B20B-8CD8-1C7D-C7AA-959ED5F2CDED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="11607800"/>
+          <a:ext cx="7772400" cy="1964057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1625600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFBCC9CE-21E9-472C-1DA2-690A937888AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8026400" y="11684000"/>
+          <a:ext cx="4775200" cy="1892300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2279,8 +3376,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -2377,12 +3474,12 @@
         <v>22</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="102">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
@@ -2409,7 +3506,7 @@
         <v>22</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17">
@@ -2574,7 +3671,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17">
@@ -2774,7 +3871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D021ECF-0C37-42DD-92AC-0405BEFA5860}">
   <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -3488,7 +4585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420030D6-0CDC-49A1-9F20-82D7858F609E}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
@@ -3550,7 +4647,7 @@
     </row>
     <row r="5" spans="1:15" ht="18">
       <c r="A5" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="17"/>
       <c r="D5" s="36"/>
@@ -3569,157 +4666,157 @@
       <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:15" ht="79.5" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="59" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="79.5" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="59" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:15" ht="60" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="60" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="G10" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="H10" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="I10" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="85" t="s">
         <v>92</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="61" t="s">
-        <v>93</v>
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
       <c r="J11" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="85"/>
+      <c r="L11" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="41" t="s">
-        <v>95</v>
-      </c>
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:15" ht="17">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="G12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="H12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="I12" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>100</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L12" s="41"/>
       <c r="M12" s="40"/>
       <c r="N12" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="47" t="s">
         <v>102</v>
-      </c>
-      <c r="O12" s="47" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="32">
       <c r="A13" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="27">
         <v>1</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="E13" s="29">
         <v>375836588</v>
@@ -3752,16 +4849,16 @@
     </row>
     <row r="14" spans="1:15" ht="48">
       <c r="A14" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="27">
         <v>2</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="29">
         <v>93300870</v>
@@ -3794,16 +4891,16 @@
     </row>
     <row r="15" spans="1:15" ht="18">
       <c r="A15" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="27">
         <v>3</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="29">
         <v>601752713</v>
@@ -3836,16 +4933,16 @@
     </row>
     <row r="16" spans="1:15" ht="18">
       <c r="A16" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="27">
         <v>4</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="29">
         <v>339113169</v>
@@ -3878,16 +4975,16 @@
     </row>
     <row r="17" spans="1:15" ht="32">
       <c r="A17" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="27">
         <v>5</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="29">
         <v>81817044</v>
@@ -3920,16 +5017,16 @@
     </row>
     <row r="18" spans="1:15" ht="18">
       <c r="A18" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="27">
         <v>6</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>111</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>112</v>
       </c>
       <c r="E18" s="29">
         <v>168618604</v>
@@ -3962,16 +5059,16 @@
     </row>
     <row r="19" spans="1:15" ht="18">
       <c r="A19" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="27">
         <v>7</v>
       </c>
       <c r="C19" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>113</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>114</v>
       </c>
       <c r="E19" s="29">
         <v>91211602</v>
@@ -4004,16 +5101,16 @@
     </row>
     <row r="20" spans="1:15" ht="18">
       <c r="A20" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="27">
         <v>8</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" s="29">
         <v>1033683536</v>
@@ -4046,16 +5143,16 @@
     </row>
     <row r="21" spans="1:15" ht="18">
       <c r="A21" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="27">
         <v>9</v>
       </c>
       <c r="C21" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>117</v>
       </c>
       <c r="E21" s="29">
         <v>176848928</v>
@@ -4088,16 +5185,16 @@
     </row>
     <row r="22" spans="1:15" ht="18">
       <c r="A22" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="27">
         <v>10</v>
       </c>
       <c r="C22" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>119</v>
       </c>
       <c r="E22" s="29">
         <v>57464869</v>
@@ -4130,16 +5227,16 @@
     </row>
     <row r="23" spans="1:15" ht="18">
       <c r="A23" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="27">
         <v>11</v>
       </c>
       <c r="C23" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>120</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>121</v>
       </c>
       <c r="E23" s="29">
         <v>85737789</v>
@@ -4172,16 +5269,16 @@
     </row>
     <row r="24" spans="1:15" ht="18">
       <c r="A24" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="27">
         <v>12</v>
       </c>
       <c r="C24" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>123</v>
       </c>
       <c r="E24" s="29">
         <v>99560357</v>
@@ -4214,16 +5311,16 @@
     </row>
     <row r="25" spans="1:15" ht="18">
       <c r="A25" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="27">
         <v>13</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="29">
         <v>141033323</v>
@@ -4256,16 +5353,16 @@
     </row>
     <row r="26" spans="1:15" ht="32">
       <c r="A26" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="27">
         <v>14</v>
       </c>
       <c r="C26" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>125</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>126</v>
       </c>
       <c r="E26" s="29">
         <v>6608528</v>
@@ -4298,16 +5395,16 @@
     </row>
     <row r="27" spans="1:15" ht="18">
       <c r="A27" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="27">
         <v>15</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="29">
         <v>0</v>
@@ -4340,16 +5437,16 @@
     </row>
     <row r="28" spans="1:15" ht="18">
       <c r="A28" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="27">
         <v>16</v>
       </c>
       <c r="C28" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>128</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>129</v>
       </c>
       <c r="E28" s="29">
         <v>59196304</v>
@@ -4382,16 +5479,16 @@
     </row>
     <row r="29" spans="1:15" ht="18">
       <c r="A29" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="27">
         <v>17</v>
       </c>
       <c r="C29" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>131</v>
       </c>
       <c r="E29" s="29">
         <v>0</v>
@@ -4424,16 +5521,16 @@
     </row>
     <row r="30" spans="1:15" ht="18">
       <c r="A30" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="27">
         <v>18</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="29">
         <v>58835350831</v>
@@ -4466,16 +5563,16 @@
     </row>
     <row r="31" spans="1:15" ht="18">
       <c r="A31" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="27">
         <v>19</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="29">
         <v>241887631</v>
@@ -4508,16 +5605,16 @@
     </row>
     <row r="32" spans="1:15" ht="18">
       <c r="A32" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="27">
         <v>20</v>
       </c>
       <c r="C32" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="28" t="s">
         <v>134</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>135</v>
       </c>
       <c r="E32" s="29">
         <v>0</v>
@@ -4548,18 +5645,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="18">
+    <row r="33" spans="1:16" ht="18">
       <c r="A33" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="27">
         <v>21</v>
       </c>
       <c r="C33" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="28" t="s">
         <v>136</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>137</v>
       </c>
       <c r="E33" s="29">
         <v>99271422</v>
@@ -4590,60 +5687,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18">
-      <c r="A34" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="27">
+    <row r="34" spans="1:16" s="61" customFormat="1" ht="18">
+      <c r="A34" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="52">
         <v>22</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="29">
+      <c r="E34" s="54">
         <v>249564294</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="54">
         <v>16023474</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="54">
         <v>3214310</v>
       </c>
-      <c r="H34" s="29">
-        <v>0</v>
-      </c>
-      <c r="I34" s="29">
+      <c r="H34" s="54">
+        <v>0</v>
+      </c>
+      <c r="I34" s="54">
         <v>58073876</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="39">
+      <c r="J34" s="54"/>
+      <c r="K34" s="55">
         <v>734094069</v>
       </c>
-      <c r="L34" s="42"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="45">
+      <c r="L34" s="56"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="59">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="18">
+      <c r="P34" s="60"/>
+    </row>
+    <row r="35" spans="1:16" ht="18">
       <c r="A35" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="27">
         <v>23</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="29">
         <v>66833366</v>
@@ -4674,18 +5772,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="18">
+    <row r="36" spans="1:16" ht="18">
       <c r="A36" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="27">
         <v>24</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" s="29">
         <v>65193704393</v>
@@ -4716,18 +5814,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18">
+    <row r="37" spans="1:16" ht="18">
       <c r="A37" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="27">
         <v>25</v>
       </c>
       <c r="C37" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>143</v>
       </c>
       <c r="E37" s="29">
         <v>33762708</v>
@@ -4758,18 +5856,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="18">
+    <row r="38" spans="1:16" ht="18">
       <c r="A38" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="27">
         <v>26</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" s="29">
         <v>324488272</v>
@@ -4800,18 +5898,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18">
+    <row r="39" spans="1:16" ht="18">
       <c r="A39" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" s="27">
         <v>27</v>
       </c>
       <c r="C39" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>146</v>
       </c>
       <c r="E39" s="29">
         <v>121807479</v>
@@ -4842,18 +5940,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="18">
+    <row r="40" spans="1:16" ht="18">
       <c r="A40" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="27">
         <v>28</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="29">
         <v>125986353</v>
@@ -4884,15 +5982,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="18">
+    <row r="41" spans="1:16" ht="18">
       <c r="A41" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="27">
         <v>29</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="30"/>
@@ -4912,18 +6010,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="18">
+    <row r="42" spans="1:16" ht="18">
       <c r="A42" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" s="27">
         <v>30</v>
       </c>
       <c r="C42" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>151</v>
       </c>
       <c r="E42" s="29">
         <v>1005819111</v>
@@ -4954,18 +6052,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="18">
+    <row r="43" spans="1:16" ht="18">
       <c r="A43" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="27">
         <v>31</v>
       </c>
       <c r="C43" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="28" t="s">
         <v>152</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>153</v>
       </c>
       <c r="E43" s="29">
         <v>293235960</v>
@@ -4996,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="18">
+    <row r="44" spans="1:16" ht="18">
       <c r="A44" s="22"/>
       <c r="B44" s="27">
         <v>32</v>
@@ -5013,7 +6111,7 @@
       <c r="L44" s="43"/>
       <c r="M44" s="40"/>
     </row>
-    <row r="45" spans="1:15" ht="18">
+    <row r="45" spans="1:16" ht="18">
       <c r="A45" s="22"/>
       <c r="B45" s="27">
         <v>33</v>
@@ -5030,7 +6128,7 @@
       <c r="L45" s="43"/>
       <c r="M45" s="40"/>
     </row>
-    <row r="46" spans="1:15" ht="18">
+    <row r="46" spans="1:16" ht="18">
       <c r="A46" s="22"/>
       <c r="B46" s="27">
         <v>34</v>
@@ -5047,7 +6145,7 @@
       <c r="L46" s="43"/>
       <c r="M46" s="40"/>
     </row>
-    <row r="47" spans="1:15" ht="18">
+    <row r="47" spans="1:16" ht="18">
       <c r="A47" s="22"/>
       <c r="B47" s="27">
         <v>35</v>
@@ -5064,7 +6162,7 @@
       <c r="L47" s="43"/>
       <c r="M47" s="40"/>
     </row>
-    <row r="48" spans="1:15" ht="18">
+    <row r="48" spans="1:16" ht="18">
       <c r="A48" s="22"/>
       <c r="B48" s="27">
         <v>36</v>
@@ -5392,8 +6490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD5D46D-8839-45E9-82B1-E674D3628704}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5404,16 +6502,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="224">
@@ -5421,17 +6519,2958 @@
         <v>14</v>
       </c>
       <c r="B2" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="49" t="s">
         <v>159</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05323979-B864-E941-8013-E91BAB71AEB7}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="142.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="56" customHeight="1">
+      <c r="A2" s="65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E25F25B-4CF7-204C-8C6D-1152C550A6DB}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="67" customFormat="1" ht="35" customHeight="1">
+      <c r="A1" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32">
+      <c r="A2" s="46">
+        <v>1</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C32" si="0">IF(OR(F2&gt;350000000,G2&gt;35000000),J$2,K$2)</f>
+        <v>V</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="29">
+        <v>375836588</v>
+      </c>
+      <c r="G2" s="29">
+        <v>58497159</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="48">
+      <c r="A3" s="46">
+        <v>0</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="29">
+        <v>93300870</v>
+      </c>
+      <c r="G3" s="29">
+        <v>-2093103</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32">
+      <c r="A4" s="46">
+        <v>1</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="29">
+        <v>601752713</v>
+      </c>
+      <c r="G4" s="29">
+        <v>25482768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18">
+      <c r="A5" s="46">
+        <v>1</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="29">
+        <v>339113169</v>
+      </c>
+      <c r="G5" s="29">
+        <v>4684162</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="32">
+      <c r="A6" s="46">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="29">
+        <v>81817044</v>
+      </c>
+      <c r="G6" s="29">
+        <v>3987744</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18">
+      <c r="A7" s="46">
+        <v>1</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="29">
+        <v>168618604</v>
+      </c>
+      <c r="G7" s="29">
+        <v>34619930</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18">
+      <c r="A8" s="46">
+        <v>0</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="29">
+        <v>91211602</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18">
+      <c r="A9" s="46">
+        <v>1</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1033683536</v>
+      </c>
+      <c r="G9" s="29">
+        <v>175139525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18">
+      <c r="A10" s="46">
+        <v>0</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="29">
+        <v>176848928</v>
+      </c>
+      <c r="G10" s="29">
+        <v>63731127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18">
+      <c r="A11" s="46">
+        <v>0</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="29">
+        <v>57464869</v>
+      </c>
+      <c r="G11" s="29">
+        <v>190093</v>
+      </c>
+      <c r="H11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18">
+      <c r="A12" s="46">
+        <v>0</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="29">
+        <v>85737789</v>
+      </c>
+      <c r="G12" s="29">
+        <v>-8881126</v>
+      </c>
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18">
+      <c r="A13" s="46">
+        <v>0</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="29">
+        <v>99560357</v>
+      </c>
+      <c r="G13" s="29">
+        <v>-4103739</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18">
+      <c r="A14" s="46">
+        <v>1</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="29">
+        <v>141033323</v>
+      </c>
+      <c r="G14" s="29">
+        <v>15855587</v>
+      </c>
+      <c r="H14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32">
+      <c r="A15" s="46">
+        <v>0</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="29">
+        <v>6608528</v>
+      </c>
+      <c r="G15" s="29">
+        <v>3701715</v>
+      </c>
+      <c r="H15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18">
+      <c r="A16" s="46">
+        <v>0</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>-57104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18">
+      <c r="A17" s="46">
+        <v>0</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="29">
+        <v>59196304</v>
+      </c>
+      <c r="G17" s="29">
+        <v>-3176323</v>
+      </c>
+      <c r="H17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18">
+      <c r="A18" s="46">
+        <v>0</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <v>-4952380</v>
+      </c>
+      <c r="H18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18">
+      <c r="A19" s="46">
+        <v>1</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="29">
+        <v>58835350831</v>
+      </c>
+      <c r="G19" s="29">
+        <v>-9271277316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18">
+      <c r="A20" s="46">
+        <v>1</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="29">
+        <v>241887631</v>
+      </c>
+      <c r="G20" s="29">
+        <v>43617230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18">
+      <c r="A21" s="46">
+        <v>1</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="29">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29">
+        <v>-37424</v>
+      </c>
+      <c r="H21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18">
+      <c r="A22" s="46">
+        <v>1</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="29">
+        <v>99271422</v>
+      </c>
+      <c r="G22" s="29">
+        <v>-1545558</v>
+      </c>
+      <c r="H22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18">
+      <c r="A23" s="59">
+        <v>1</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="54">
+        <v>249564294</v>
+      </c>
+      <c r="G23" s="54">
+        <v>16023474</v>
+      </c>
+      <c r="H23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18">
+      <c r="A24" s="46">
+        <v>1</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="29">
+        <v>66833366</v>
+      </c>
+      <c r="G24" s="29">
+        <v>8810533</v>
+      </c>
+      <c r="H24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18">
+      <c r="A25" s="46">
+        <v>1</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="29">
+        <v>65193704393</v>
+      </c>
+      <c r="G25" s="29">
+        <v>-3178473848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18">
+      <c r="A26" s="46">
+        <v>1</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="29">
+        <v>33762708</v>
+      </c>
+      <c r="G26" s="29">
+        <v>9839840</v>
+      </c>
+      <c r="H26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18">
+      <c r="A27" s="46">
+        <v>1</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="29">
+        <v>324488272</v>
+      </c>
+      <c r="G27" s="29">
+        <v>24171284</v>
+      </c>
+      <c r="H27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18">
+      <c r="A28" s="46">
+        <v>1</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D28" s="69"/>
+      <c r="E28" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="29">
+        <v>121807479</v>
+      </c>
+      <c r="G28" s="29">
+        <v>8725465</v>
+      </c>
+      <c r="H28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18">
+      <c r="A29" s="46">
+        <v>1</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="D29" s="69"/>
+      <c r="E29" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="29">
+        <v>125986353</v>
+      </c>
+      <c r="G29" s="29">
+        <v>62943441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18">
+      <c r="A30" s="46">
+        <v>1</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="D30" s="69"/>
+      <c r="E30" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18">
+      <c r="A31" s="46">
+        <v>1</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="D31" s="69"/>
+      <c r="E31" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="29">
+        <v>1005819111</v>
+      </c>
+      <c r="G31" s="29">
+        <v>-360280175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18">
+      <c r="A32" s="46">
+        <v>1</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="29">
+        <v>293235960</v>
+      </c>
+      <c r="G32" s="29">
+        <v>44338672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18">
+      <c r="D33" s="69"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+    </row>
+    <row r="39" spans="1:5" ht="128">
+      <c r="A39" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H32" xr:uid="{9E25F25B-4CF7-204C-8C6D-1152C550A6DB}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A35:E38"/>
+    <mergeCell ref="B39:E39"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{A1B6B445-7C34-9B4E-8C24-C99888867B80}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>A2:A32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A205F1F3-D049-1E4B-83F3-1E71D2E57993}">
+  <dimension ref="A1:AE37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.5" customWidth="1"/>
+    <col min="27" max="27" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="273" customHeight="1">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="64">
+        <v>14</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+    </row>
+    <row r="6" spans="1:31" ht="80">
+      <c r="A6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="K6" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="T6" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="X6" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD6" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE6" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="18">
+      <c r="A7" s="46">
+        <f>IF(B7=C7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="str">
+        <f>IF(L7&gt;0,AD$6,AE$6)</f>
+        <v>V</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="22">
+        <f>VLOOKUP(F7,S:T,2,FALSE)</f>
+        <v>58497159</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="72">
+        <f t="shared" ref="I7:I37" si="0">VLOOKUP(F7,W:X,2,FALSE)</f>
+        <v>172133879</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="71">
+        <f>VLOOKUP(F7,Z:AA,2,FALSE)</f>
+        <v>352639595</v>
+      </c>
+      <c r="L7">
+        <f>G7-((((H7+I7)/2)*0.1)+(((J7+K7)/2)*0.08))</f>
+        <v>35784881.25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>238</v>
+      </c>
+      <c r="T7">
+        <v>4684162</v>
+      </c>
+      <c r="W7" t="s">
+        <v>238</v>
+      </c>
+      <c r="X7">
+        <v>14957893</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA7" s="70">
+        <v>8651066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="32">
+      <c r="A8" s="46">
+        <f t="shared" ref="A8:A37" si="1">IF(B8=C8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ref="C8:C37" si="2">IF(L8&gt;0,AD$6,AE$6)</f>
+        <v>X</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" ref="G8:G37" si="3">VLOOKUP(F8,S:T,2,FALSE)</f>
+        <v>-2093103</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="72">
+        <f t="shared" si="0"/>
+        <v>65572345</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="71">
+        <f t="shared" ref="K8:K37" si="4">VLOOKUP(F8,Z:AA,2,FALSE)</f>
+        <v>18846234</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L37" si="5">G8-((((H8+I8)/2)*0.1)+(((J8+K8)/2)*0.08))</f>
+        <v>-6125569.6099999994</v>
+      </c>
+      <c r="S8" t="s">
+        <v>262</v>
+      </c>
+      <c r="T8">
+        <v>-4952380</v>
+      </c>
+      <c r="W8" t="s">
+        <v>262</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA8" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="18">
+      <c r="A9" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="3"/>
+        <v>25482768</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="72">
+        <f t="shared" si="0"/>
+        <v>315953399</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="71">
+        <f t="shared" si="4"/>
+        <v>125725852</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>4656063.9699999988</v>
+      </c>
+      <c r="S9" t="s">
+        <v>268</v>
+      </c>
+      <c r="T9">
+        <v>3701715</v>
+      </c>
+      <c r="W9" t="s">
+        <v>268</v>
+      </c>
+      <c r="X9">
+        <v>1444288</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA9" s="70">
+        <v>39298341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="18">
+      <c r="A10" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="3"/>
+        <v>4684162</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="72">
+        <f t="shared" si="0"/>
+        <v>14957893</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="71">
+        <f t="shared" si="4"/>
+        <v>8651066</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>3590224.71</v>
+      </c>
+      <c r="S10" t="s">
+        <v>253</v>
+      </c>
+      <c r="T10">
+        <v>8810533</v>
+      </c>
+      <c r="W10" t="s">
+        <v>253</v>
+      </c>
+      <c r="X10">
+        <v>30314028</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA10" s="70">
+        <v>8675583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="18">
+      <c r="A11" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="3"/>
+        <v>3987744</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="72">
+        <f t="shared" si="0"/>
+        <v>35011220</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="71">
+        <f t="shared" si="4"/>
+        <v>18643944</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>1491425.2400000002</v>
+      </c>
+      <c r="S11" t="s">
+        <v>236</v>
+      </c>
+      <c r="T11">
+        <v>25482768</v>
+      </c>
+      <c r="W11" t="s">
+        <v>236</v>
+      </c>
+      <c r="X11">
+        <v>315953399</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA11" s="70">
+        <v>125725852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="18">
+      <c r="A12" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="3"/>
+        <v>34619930</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="72">
+        <f t="shared" si="0"/>
+        <v>15369349</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="71">
+        <f t="shared" si="4"/>
+        <v>18900466</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>33095443.91</v>
+      </c>
+      <c r="S12" t="s">
+        <v>282</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>282</v>
+      </c>
+      <c r="X12">
+        <v>11810358</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA12" s="70">
+        <v>857592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="18">
+      <c r="A13" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="72">
+        <f t="shared" si="0"/>
+        <v>11810358</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="71">
+        <f t="shared" si="4"/>
+        <v>857592</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>-624821.58000000007</v>
+      </c>
+      <c r="S13" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13">
+        <v>-2093103</v>
+      </c>
+      <c r="W13" t="s">
+        <v>234</v>
+      </c>
+      <c r="X13">
+        <v>65572345</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA13" s="70">
+        <v>18846234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="21">
+      <c r="A14" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="3"/>
+        <v>175139525</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="72">
+        <f t="shared" si="0"/>
+        <v>134009762</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="71">
+        <f t="shared" si="4"/>
+        <v>145160251</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>162632626.86000001</v>
+      </c>
+      <c r="S14" t="s">
+        <v>243</v>
+      </c>
+      <c r="T14">
+        <v>62943441</v>
+      </c>
+      <c r="W14" t="s">
+        <v>243</v>
+      </c>
+      <c r="X14">
+        <v>4556677</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA14" s="70">
+        <v>107759936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="18">
+      <c r="A15" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="3"/>
+        <v>63731127</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="72">
+        <f t="shared" si="0"/>
+        <v>60361344</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="71">
+        <f t="shared" si="4"/>
+        <v>138036675</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>55191592.799999997</v>
+      </c>
+      <c r="S15" t="s">
+        <v>289</v>
+      </c>
+      <c r="T15">
+        <v>-37424</v>
+      </c>
+      <c r="W15" t="s">
+        <v>289</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA15" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="18">
+      <c r="A16" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="3"/>
+        <v>190093</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="72">
+        <f t="shared" si="0"/>
+        <v>10219114</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="71">
+        <f t="shared" si="4"/>
+        <v>22107</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>-321746.98000000004</v>
+      </c>
+      <c r="S16" t="s">
+        <v>287</v>
+      </c>
+      <c r="T16">
+        <v>3987744</v>
+      </c>
+      <c r="W16" t="s">
+        <v>287</v>
+      </c>
+      <c r="X16">
+        <v>35011220</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA16" s="70">
+        <v>18643944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="18">
+      <c r="A17" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="3"/>
+        <v>-8881126</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="72">
+        <f t="shared" si="0"/>
+        <v>65368128</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="71">
+        <f t="shared" si="4"/>
+        <v>15142061</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>-12755214.84</v>
+      </c>
+      <c r="S17" t="s">
+        <v>255</v>
+      </c>
+      <c r="T17">
+        <v>16023474</v>
+      </c>
+      <c r="W17" t="s">
+        <v>255</v>
+      </c>
+      <c r="X17">
+        <v>58073876</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA17" s="70">
+        <v>734094069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="18">
+      <c r="A18" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="3"/>
+        <v>-4103739</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="72">
+        <f t="shared" si="0"/>
+        <v>4544744</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="71">
+        <f t="shared" si="4"/>
+        <v>58183008</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>-6658296.5199999996</v>
+      </c>
+      <c r="S18" t="s">
+        <v>232</v>
+      </c>
+      <c r="T18">
+        <v>58497159</v>
+      </c>
+      <c r="W18" t="s">
+        <v>232</v>
+      </c>
+      <c r="X18">
+        <v>172133879</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA18" s="70">
+        <v>352639595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="18">
+      <c r="A19" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="3"/>
+        <v>15855587</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="72">
+        <f t="shared" si="0"/>
+        <v>98476147</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="71">
+        <f t="shared" si="4"/>
+        <v>35987868</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>9492264.9299999997</v>
+      </c>
+      <c r="S19" t="s">
+        <v>248</v>
+      </c>
+      <c r="T19">
+        <v>9839840</v>
+      </c>
+      <c r="W19" t="s">
+        <v>248</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA19" s="70">
+        <v>1656056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="32">
+      <c r="A20" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="3"/>
+        <v>3701715</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="72">
+        <f t="shared" si="0"/>
+        <v>1444288</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="71">
+        <f t="shared" si="4"/>
+        <v>39298341</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>2057566.96</v>
+      </c>
+      <c r="S20" t="s">
+        <v>274</v>
+      </c>
+      <c r="T20">
+        <v>190093</v>
+      </c>
+      <c r="W20" t="s">
+        <v>274</v>
+      </c>
+      <c r="X20">
+        <v>10219114</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA20" s="70">
+        <v>22107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="18">
+      <c r="A21" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="3"/>
+        <v>-57104</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="71">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>-57104</v>
+      </c>
+      <c r="S21" t="s">
+        <v>285</v>
+      </c>
+      <c r="T21">
+        <v>34619930</v>
+      </c>
+      <c r="W21" t="s">
+        <v>285</v>
+      </c>
+      <c r="X21">
+        <v>15369349</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA21" s="70">
+        <v>18900466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="18">
+      <c r="A22" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="3"/>
+        <v>-3176323</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="72">
+        <f t="shared" si="0"/>
+        <v>35535809</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="71">
+        <f t="shared" si="4"/>
+        <v>10622981</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>-5378032.6900000004</v>
+      </c>
+      <c r="S22" t="s">
+        <v>279</v>
+      </c>
+      <c r="T22">
+        <v>175139525</v>
+      </c>
+      <c r="W22" t="s">
+        <v>279</v>
+      </c>
+      <c r="X22">
+        <v>134009762</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA22" s="70">
+        <v>145160251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="18">
+      <c r="A23" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="3"/>
+        <v>-4952380</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>-4952380</v>
+      </c>
+      <c r="S23" t="s">
+        <v>259</v>
+      </c>
+      <c r="T23">
+        <v>43617230</v>
+      </c>
+      <c r="W23" t="s">
+        <v>259</v>
+      </c>
+      <c r="X23">
+        <v>137628335</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA23" s="70">
+        <v>17089626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="18">
+      <c r="A24" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="3"/>
+        <v>-9271277316</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="72">
+        <f t="shared" si="0"/>
+        <v>3443444925</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="71">
+        <f t="shared" si="4"/>
+        <v>115663822101</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>-14070002446.290001</v>
+      </c>
+      <c r="S24" t="s">
+        <v>276</v>
+      </c>
+      <c r="T24">
+        <v>63731127</v>
+      </c>
+      <c r="W24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X24">
+        <v>60361344</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA24" s="70">
+        <v>138036675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="18">
+      <c r="A25" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="3"/>
+        <v>43617230</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="72">
+        <f t="shared" si="0"/>
+        <v>137628335</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="71">
+        <f t="shared" si="4"/>
+        <v>17089626</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>36052228.210000001</v>
+      </c>
+      <c r="S25" t="s">
+        <v>273</v>
+      </c>
+      <c r="T25">
+        <v>-8881126</v>
+      </c>
+      <c r="W25" t="s">
+        <v>273</v>
+      </c>
+      <c r="X25">
+        <v>65368128</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA25" s="70">
+        <v>15142061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="18">
+      <c r="A26" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="3"/>
+        <v>-37424</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>-37424</v>
+      </c>
+      <c r="S26" t="s">
+        <v>250</v>
+      </c>
+      <c r="T26">
+        <v>-3178473848</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26">
+        <v>4763945274</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA26" s="70">
+        <v>113920419268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="18">
+      <c r="A27" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="3"/>
+        <v>-1545558</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="72">
+        <f t="shared" si="0"/>
+        <v>65249412</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="71">
+        <f t="shared" si="4"/>
+        <v>56109090</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>-7052392.2000000002</v>
+      </c>
+      <c r="S27" t="s">
+        <v>240</v>
+      </c>
+      <c r="T27">
+        <v>-360280175</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27">
+        <v>411919976</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA27" s="70">
+        <v>3346327017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="18">
+      <c r="A28" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="3"/>
+        <v>16023474</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="72">
+        <f t="shared" si="0"/>
+        <v>58073876</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="71">
+        <f t="shared" si="4"/>
+        <v>734094069</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>-16243982.560000002</v>
+      </c>
+      <c r="S28" t="s">
+        <v>239</v>
+      </c>
+      <c r="T28">
+        <v>44338672</v>
+      </c>
+      <c r="W28" t="s">
+        <v>239</v>
+      </c>
+      <c r="X28">
+        <v>12257520</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA28" s="70">
+        <v>8986782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="18">
+      <c r="A29" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="3"/>
+        <v>8810533</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="72">
+        <f t="shared" si="0"/>
+        <v>30314028</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="71">
+        <f t="shared" si="4"/>
+        <v>8675583</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>6947808.2799999993</v>
+      </c>
+      <c r="S29" t="s">
+        <v>270</v>
+      </c>
+      <c r="T29">
+        <v>15855587</v>
+      </c>
+      <c r="W29" t="s">
+        <v>270</v>
+      </c>
+      <c r="X29">
+        <v>98476147</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA29" s="70">
+        <v>35987868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="18">
+      <c r="A30" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="3"/>
+        <v>-3178473848</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="72">
+        <f t="shared" si="0"/>
+        <v>4763945274</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="71">
+        <f t="shared" si="4"/>
+        <v>113920419268</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>-7973487882.4200001</v>
+      </c>
+      <c r="S30" t="s">
+        <v>241</v>
+      </c>
+      <c r="W30" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA30" s="70"/>
+    </row>
+    <row r="31" spans="1:27" ht="18">
+      <c r="A31" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D31" s="69"/>
+      <c r="E31" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="3"/>
+        <v>9839840</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="71">
+        <f t="shared" si="4"/>
+        <v>1656056</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>9773597.7599999998</v>
+      </c>
+      <c r="S31" t="s">
+        <v>264</v>
+      </c>
+      <c r="T31">
+        <v>-3176323</v>
+      </c>
+      <c r="W31" t="s">
+        <v>264</v>
+      </c>
+      <c r="X31">
+        <v>35535809</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA31" s="70">
+        <v>10622981</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="18">
+      <c r="A32" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D32" s="69"/>
+      <c r="E32" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="3"/>
+        <v>24171284</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="72">
+        <f t="shared" si="0"/>
+        <v>204371709</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="71">
+        <f t="shared" si="4"/>
+        <v>51706176</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>11884451.509999998</v>
+      </c>
+      <c r="S32" t="s">
+        <v>260</v>
+      </c>
+      <c r="T32">
+        <v>-9271277316</v>
+      </c>
+      <c r="W32" t="s">
+        <v>260</v>
+      </c>
+      <c r="X32">
+        <v>3443444925</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA32" s="70">
+        <v>115663822101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="18">
+      <c r="A33" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D33" s="69"/>
+      <c r="E33" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="3"/>
+        <v>8725465</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="72">
+        <f t="shared" si="0"/>
+        <v>68632859</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="71">
+        <f t="shared" si="4"/>
+        <v>25315193</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>4281214.33</v>
+      </c>
+      <c r="S33" t="s">
+        <v>266</v>
+      </c>
+      <c r="T33">
+        <v>-57104</v>
+      </c>
+      <c r="W33" t="s">
+        <v>266</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA33" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="18">
+      <c r="A34" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D34" s="69"/>
+      <c r="E34" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="3"/>
+        <v>62943441</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="72">
+        <f t="shared" si="0"/>
+        <v>4556677</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="71">
+        <f t="shared" si="4"/>
+        <v>107759936</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>58405209.710000001</v>
+      </c>
+      <c r="S34" t="s">
+        <v>257</v>
+      </c>
+      <c r="T34">
+        <v>-1545558</v>
+      </c>
+      <c r="W34" t="s">
+        <v>257</v>
+      </c>
+      <c r="X34">
+        <v>65249412</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA34" s="70">
+        <v>56109090</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="18">
+      <c r="A35" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D35" s="69"/>
+      <c r="E35" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
+        <v>246</v>
+      </c>
+      <c r="T35">
+        <v>24171284</v>
+      </c>
+      <c r="W35" t="s">
+        <v>246</v>
+      </c>
+      <c r="X35">
+        <v>204371709</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA35" s="70">
+        <v>51706176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="18">
+      <c r="A36" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="3"/>
+        <v>-360280175</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="72">
+        <f t="shared" si="0"/>
+        <v>411919976</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="71">
+        <f t="shared" si="4"/>
+        <v>3346327017</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>-514729254.48000002</v>
+      </c>
+      <c r="S36" t="s">
+        <v>244</v>
+      </c>
+      <c r="T36">
+        <v>8725465</v>
+      </c>
+      <c r="W36" t="s">
+        <v>244</v>
+      </c>
+      <c r="X36">
+        <v>68632859</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA36" s="70">
+        <v>25315193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="18">
+      <c r="A37" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="2"/>
+        <v>V</v>
+      </c>
+      <c r="D37" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="3"/>
+        <v>44338672</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="72">
+        <f t="shared" si="0"/>
+        <v>12257520</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="71">
+        <f t="shared" si="4"/>
+        <v>8986782</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>43366324.719999999</v>
+      </c>
+      <c r="S37" t="s">
+        <v>272</v>
+      </c>
+      <c r="T37">
+        <v>-4103739</v>
+      </c>
+      <c r="W37" t="s">
+        <v>272</v>
+      </c>
+      <c r="X37">
+        <v>4544744</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA37" s="70">
+        <v>58183008</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{7BF1697B-B471-0149-AE2A-1B217DE5F252}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>A7:A37</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>